--- a/com.apartments/src/test/resources/apartments_test_data.xlsx
+++ b/com.apartments/src/test/resources/apartments_test_data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naweedkhaleque/IdeaProjects/SeleniumBootcamp/com.apartments/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CD5C22-BB59-F047-A6B3-35454B00BBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECCC452-6E3C-4141-A0B8-011E404E44B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="1" xr2:uid="{9BE97E05-A9B7-1149-826E-735793A35BB9}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="4" xr2:uid="{9BE97E05-A9B7-1149-826E-735793A35BB9}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleSearch" sheetId="1" r:id="rId1"/>
     <sheet name="SecondSearchTerm" sheetId="2" r:id="rId2"/>
+    <sheet name="NumberOfFavorites" sheetId="3" r:id="rId3"/>
+    <sheet name="OneFavorite" sheetId="4" r:id="rId4"/>
+    <sheet name="RemoveFavorites" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Long Island City, NY</t>
   </si>
@@ -49,6 +52,15 @@
   <si>
     <t>The Tides At Arverne By The Sea
 190 Beach 69th St, Arverne, NY 11692</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>No Favorites Yet</t>
   </si>
 </sst>
 </file>
@@ -438,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C4C196-04A1-8441-8D07-660BA0DD0C2C}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,4 +472,82 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD3FC6B-BA10-E248-B6D5-621A398CFFB4}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292BA10F-9502-4843-8EB5-A902324695FF}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA7B0E5-F5FF-0C46-90D3-9AAF9417C8F7}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.apartments/src/test/resources/apartments_test_data.xlsx
+++ b/com.apartments/src/test/resources/apartments_test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naweedkhaleque/IdeaProjects/SeleniumBootcamp/com.apartments/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECCC452-6E3C-4141-A0B8-011E404E44B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEBE356-65A5-AA43-9122-3A623C95552E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="4" xr2:uid="{9BE97E05-A9B7-1149-826E-735793A35BB9}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="SimpleSearch" sheetId="1" r:id="rId1"/>
     <sheet name="SecondSearchTerm" sheetId="2" r:id="rId2"/>
     <sheet name="NumberOfFavorites" sheetId="3" r:id="rId3"/>
-    <sheet name="OneFavorite" sheetId="4" r:id="rId4"/>
-    <sheet name="RemoveFavorites" sheetId="5" r:id="rId5"/>
+    <sheet name="RemoveFavorites" sheetId="5" r:id="rId4"/>
+    <sheet name="WriteAReview" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Long Island City, NY</t>
   </si>
@@ -57,10 +57,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>No Favorites Yet</t>
+  </si>
+  <si>
+    <t>Below is my review</t>
+  </si>
+  <si>
+    <t>My review</t>
+  </si>
+  <si>
+    <t>Submit Review</t>
   </si>
 </sst>
 </file>
@@ -501,36 +507,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292BA10F-9502-4843-8EB5-A902324695FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA7B0E5-F5FF-0C46-90D3-9AAF9417C8F7}">
   <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA7B0E5-F5FF-0C46-90D3-9AAF9417C8F7}">
-  <dimension ref="A2:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -544,7 +524,40 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1089F53C-E376-DD46-90C0-2ADC0DA4568B}">
+  <dimension ref="A2:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/com.apartments/src/test/resources/apartments_test_data.xlsx
+++ b/com.apartments/src/test/resources/apartments_test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naweedkhaleque/IdeaProjects/SeleniumBootcamp/com.apartments/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEBE356-65A5-AA43-9122-3A623C95552E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062C1B81-5A5B-8443-BEC1-3DCD16E184FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="4" xr2:uid="{9BE97E05-A9B7-1149-826E-735793A35BB9}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="5" xr2:uid="{9BE97E05-A9B7-1149-826E-735793A35BB9}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleSearch" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="NumberOfFavorites" sheetId="3" r:id="rId3"/>
     <sheet name="RemoveFavorites" sheetId="5" r:id="rId4"/>
     <sheet name="WriteAReview" sheetId="6" r:id="rId5"/>
+    <sheet name="RentCalculator" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Long Island City, NY</t>
   </si>
@@ -67,6 +68,18 @@
   </si>
   <si>
     <t>Submit Review</t>
+  </si>
+  <si>
+    <t>Brooklyn, NY</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>66 Rockwell Place</t>
   </si>
 </sst>
 </file>
@@ -107,9 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -468,10 +482,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -497,7 +511,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -536,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1089F53C-E376-DD46-90C0-2ADC0DA4568B}">
   <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -563,4 +577,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591DB709-58C0-5843-AF0B-2EF5C6804862}">
+  <dimension ref="A2:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>